--- a/01-planning/ToDoList.xlsx
+++ b/01-planning/ToDoList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuahellewell/Desktop/02-msc/01-modules/MSc Project - 771952/01-planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F865C31-F981-1B4B-8A94-ADAB07F63C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E9DBCE-11F5-1E44-AA4B-D337EFA8CDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="110360" yWindow="5780" windowWidth="27640" windowHeight="16940" xr2:uid="{85B590A8-DC1E-3F45-BC6F-0F6BDDB88BFA}"/>
+    <workbookView xWindow="68960" yWindow="3980" windowWidth="38080" windowHeight="20780" xr2:uid="{85B590A8-DC1E-3F45-BC6F-0F6BDDB88BFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -87,13 +87,28 @@
   </si>
   <si>
     <t>Write background for optimisation (genetic algorithm, gradient based).</t>
+  </si>
+  <si>
+    <t>Write abstract for lit review</t>
+  </si>
+  <si>
+    <t>Create risk register</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,6 +118,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -123,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -132,13 +153,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -147,7 +168,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -165,7 +186,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -177,13 +198,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -201,7 +237,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -216,7 +252,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -228,10 +264,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -243,10 +277,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -258,10 +290,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -270,26 +300,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -619,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606AFDA8-25A0-534E-BF85-95BC8A30CC92}">
-  <dimension ref="B1:D27"/>
+  <dimension ref="B1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,170 +702,232 @@
   <sheetData>
     <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="3"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C3:C29">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="Doing">
+      <formula>NOT(ISERROR(SEARCH("Doing",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C29" xr:uid="{BAB29903-4D34-B945-B65D-E4A885B8F86B}">
+      <formula1>"Done, Doing, Not Started"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>